--- a/data/output/FV2304_FV2210/UTILMD/11195.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11195.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="318">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="318">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1083,6 +1083,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U196" totalsRowShown="0">
+  <autoFilter ref="A1:U196"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1372,7 +1402,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10217,5 +10250,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11195.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11195.xlsx
@@ -2096,7 +2096,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5286,22 +5286,22 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>266</v>
       </c>
       <c r="K69" s="6" t="s">
@@ -5310,19 +5310,19 @@
       <c r="L69" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>266</v>
       </c>
       <c r="V69" s="6" t="s">
@@ -5500,7 +5500,7 @@
         <v>296</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5708,7 +5708,7 @@
         <v>298</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5914,7 +5914,7 @@
         <v>299</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6106,7 +6106,7 @@
         <v>301</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6394,7 +6394,7 @@
         <v>302</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7260,7 +7260,7 @@
         <v>305</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7742,7 +7742,7 @@
         <v>307</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8114,7 +8114,7 @@
         <v>308</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8776,7 +8776,7 @@
         <v>309</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8874,7 +8874,7 @@
         <v>310</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9366,7 +9366,7 @@
         <v>312</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9934,7 +9934,7 @@
         <v>313</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10122,7 +10122,7 @@
         <v>314</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10614,7 +10614,7 @@
         <v>316</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11326,7 +11326,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N194" s="2"/>
